--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="37" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -246,9 +246,6 @@
     <t>PC+PM</t>
   </si>
   <si>
-    <t>CSS</t>
-  </si>
-  <si>
     <t>Anh Tuấn BG</t>
   </si>
   <si>
@@ -261,10 +258,127 @@
     <t>TG102</t>
   </si>
   <si>
-    <t>012896000429016</t>
-  </si>
-  <si>
     <t>Anten gsm</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200622</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi khởi động</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Restore lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng connetor</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn 3,3v</t>
+  </si>
+  <si>
+    <t>Thay MAX3232, MCU</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi phần cứng</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14848</t>
+  </si>
+  <si>
+    <t>B.2.26</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi chân MCU, không nạp đc FW</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>1504061104/ Thiết bị HHDV/ 865904028279187</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa mạch</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Reestore thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170909 </t>
+  </si>
+  <si>
+    <t>124.158.005.014,16870</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -676,6 +790,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,9 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B16"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1057,43 +1171,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1138,58 +1252,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -1214,23 +1328,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,7 +1356,7 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="39">
         <v>865904028273792</v>
@@ -1252,11 +1366,19 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -1265,16 +1387,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="S6" s="4"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1291,7 +1411,7 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="39">
         <v>866762025212729</v>
@@ -1301,11 +1421,19 @@
         <v>65</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>105</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40"/>
       <c r="P7" s="1"/>
@@ -1313,7 +1441,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1328,7 +1456,7 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="39">
         <v>865904027272381</v>
@@ -1339,18 +1467,30 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1365,7 +1505,7 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="39">
         <v>865904027282034</v>
@@ -1387,7 +1527,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1402,7 +1542,7 @@
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="39">
         <v>865904027271003</v>
@@ -1424,7 +1564,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1439,7 +1579,7 @@
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="39">
         <v>866762029426481</v>
@@ -1461,7 +1601,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1616,7 @@
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="39">
         <v>865904027282786</v>
@@ -1498,7 +1638,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1515,29 +1655,47 @@
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="39">
         <v>865904028283155</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="G13" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="13">
+        <v>1503311634</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1552,20 +1710,26 @@
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="E14" s="70">
+        <v>867330026947757</v>
       </c>
       <c r="F14" s="55"/>
       <c r="G14" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
@@ -1574,7 +1738,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1753,7 @@
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="39">
         <v>865904028279187</v>
@@ -1598,20 +1762,40 @@
       <c r="G15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1626,31 +1810,49 @@
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="39">
         <v>862118020970114</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="1">
+        <v>1308061405</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1769,7 +1971,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1801,7 +2003,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1833,7 +2035,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1950,7 +2152,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -2110,7 +2312,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2206,7 +2408,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -2302,7 +2504,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2420,7 +2622,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -2881,13 +3083,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2899,6 +3094,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2909,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2942,43 +3144,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3023,58 +3225,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3099,23 +3301,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,11 +3339,19 @@
         <v>65</v>
       </c>
       <c r="H6" s="55"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>109</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>111</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -3156,10 +3366,10 @@
         <v>24</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3186,21 +3396,33 @@
         <v>65</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="K7" s="60"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3229,7 +3451,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3258,7 +3480,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3287,7 +3509,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3316,7 +3538,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3345,7 +3567,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3376,7 +3598,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3405,7 +3627,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3656,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3463,7 +3685,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3646,7 +3868,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3923,7 +4145,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4115,7 +4337,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4233,7 +4455,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4694,6 +4916,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4705,13 +4934,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4723,7 +4945,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4755,43 +4977,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -4836,58 +5058,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -4912,23 +5134,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4940,7 +5162,7 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="39">
         <v>862631034711142</v>
@@ -4950,19 +5172,33 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
+      <c r="I6" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="60"/>
+      <c r="K6" s="60" t="s">
+        <v>81</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4979,7 +5215,7 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="39">
         <v>863586034550305</v>
@@ -4989,19 +5225,35 @@
         <v>65</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5030,7 +5282,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5059,7 +5311,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5088,7 +5340,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5117,7 +5369,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5146,7 +5398,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5177,7 +5429,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5206,7 +5458,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5235,7 +5487,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5264,7 +5516,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5383,7 +5635,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5820,7 +6072,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -5916,7 +6168,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6495,13 +6747,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6513,6 +6758,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6524,7 +6776,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6556,43 +6808,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -6637,58 +6889,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -6713,23 +6965,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6751,11 +7003,21 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -6764,14 +7026,14 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6798,11 +7060,19 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
         <v>61</v>
@@ -6811,14 +7081,14 @@
         <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6843,19 +7113,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="I8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="60"/>
+      <c r="L8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6880,19 +7166,37 @@
         <v>63</v>
       </c>
       <c r="H9" s="40"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6917,19 +7221,37 @@
         <v>65</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6953,20 +7275,38 @@
       <c r="G11" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="38">
+        <v>202007101416604</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="L11" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6991,19 +7331,37 @@
         <v>65</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7030,19 +7388,37 @@
         <v>65</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7067,19 +7443,35 @@
         <v>65</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7108,7 +7500,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7137,7 +7529,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7256,7 +7648,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -7288,7 +7680,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7320,7 +7712,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7533,7 +7925,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7597,7 +7989,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -7725,7 +8117,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7789,7 +8181,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8368,13 +8760,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8386,6 +8771,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8429,43 +8821,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="80"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8510,58 +8902,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -8586,23 +8978,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8628,7 +9020,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8659,7 +9051,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8688,7 +9080,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8717,7 +9109,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8746,7 +9138,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8775,7 +9167,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8804,7 +9196,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8835,7 +9227,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8864,7 +9256,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8893,7 +9285,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="72"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8922,7 +9314,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="73"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10153,13 +10545,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10171,6 +10556,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang9/2.XulyBH/XLBH2109_AnhTuanBG.xlsx
@@ -9,25 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102" sheetId="37" r:id="rId1"/>
-    <sheet name="TG102V" sheetId="35" r:id="rId2"/>
+    <sheet name="TG102V" sheetId="35" r:id="rId1"/>
+    <sheet name="TG102" sheetId="37" r:id="rId2"/>
     <sheet name="TG102SE" sheetId="36" r:id="rId3"/>
     <sheet name="TG102LE" sheetId="34" r:id="rId4"/>
     <sheet name="TongThang" sheetId="25" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Thiết bị oxi hóa mạch</t>
   </si>
   <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>Sim lỗi</t>
   </si>
   <si>
@@ -379,6 +376,12 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi giao tiếp do lỗi mạch</t>
+  </si>
+  <si>
+    <t>1411284126/865904027282034</t>
   </si>
 </sst>
 </file>
@@ -793,22 +796,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,6 +818,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,43 +1174,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1252,99 +1255,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="65" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="68" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,30 +1357,32 @@
       <c r="B6" s="37">
         <v>44467</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44444</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" s="39">
-        <v>865904028273792</v>
-      </c>
-      <c r="F6" s="38"/>
+        <v>866192037796156</v>
+      </c>
+      <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="60" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="60" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -1387,20 +1392,22 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="71" t="s">
+      <c r="S6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="64"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1409,111 +1416,91 @@
       <c r="B7" s="37">
         <v>44467</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44444</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="39">
-        <v>866762025212729</v>
-      </c>
-      <c r="F7" s="38"/>
+        <v>864811036990047</v>
+      </c>
+      <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="60" t="s">
-        <v>74</v>
-      </c>
+      <c r="H7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="60"/>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="40" t="s">
-        <v>101</v>
-      </c>
+      <c r="L7" s="40"/>
       <c r="M7" s="40" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="72"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="64"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="39">
-        <v>865904027272381</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G8" s="38"/>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
-        <v>95</v>
-      </c>
+      <c r="M8" s="40"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>30</v>
-      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="72"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="64"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="39">
-        <v>865904027282034</v>
-      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G9" s="38"/>
       <c r="H9" s="40"/>
       <c r="I9" s="50"/>
       <c r="J9" s="40"/>
@@ -1526,31 +1513,23 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="72"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="39">
-        <v>865904027271003</v>
-      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G10" s="38"/>
       <c r="H10" s="2"/>
       <c r="I10" s="60"/>
       <c r="J10" s="1"/>
@@ -1563,31 +1542,23 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="72"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B11" s="37"/>
       <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="39">
-        <v>866762029426481</v>
-      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="55"/>
-      <c r="G11" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="60"/>
       <c r="J11" s="1"/>
@@ -1600,31 +1571,23 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="72"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B12" s="37"/>
       <c r="C12" s="37"/>
-      <c r="D12" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="39">
-        <v>865904027282786</v>
-      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="55"/>
-      <c r="G12" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G12" s="38"/>
       <c r="H12" s="1"/>
       <c r="I12" s="60"/>
       <c r="J12" s="1"/>
@@ -1637,99 +1600,59 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="71" t="s">
+      <c r="T12" s="64"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="64"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B13" s="37"/>
       <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="39">
-        <v>865904028283155</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1503311634</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>74</v>
-      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="72"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="70">
-        <v>867330026947757</v>
-      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G14" s="38"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="60" t="s">
-        <v>74</v>
-      </c>
+      <c r="I14" s="50"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>101</v>
-      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="40"/>
@@ -1737,126 +1660,70 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="72"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="64"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="37"/>
-      <c r="D15" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="39">
-        <v>865904028279187</v>
-      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="55"/>
-      <c r="G15" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>89</v>
-      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37">
-        <v>44467</v>
-      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="39">
-        <v>862118020970114</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1308061405</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="40" t="s">
-        <v>95</v>
-      </c>
+      <c r="M16" s="40"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="64"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1881,9 +1748,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="69"/>
+      <c r="U17" s="64"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="69"/>
+      <c r="W17" s="64"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1935,7 +1802,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="68" t="s">
+      <c r="U19" s="65" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1971,7 +1838,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2003,7 +1870,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2035,7 +1902,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2116,7 +1983,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="68" t="s">
+      <c r="U25" s="65" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2152,7 +2019,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -2408,7 +2275,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -2504,7 +2371,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2622,7 +2489,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -3111,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3144,43 +3011,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3225,99 +3092,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="68" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="65" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3327,30 +3194,32 @@
       <c r="B6" s="37">
         <v>44467</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44444</v>
+      </c>
       <c r="D6" s="38" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E6" s="39">
-        <v>866192037796156</v>
-      </c>
-      <c r="F6" s="55"/>
+        <v>865904028273792</v>
+      </c>
+      <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="60" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="60" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
@@ -3360,22 +3229,20 @@
         <v>62</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="71" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="64"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3384,26 +3251,30 @@
       <c r="B7" s="37">
         <v>44467</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44444</v>
+      </c>
       <c r="D7" s="38" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E7" s="39">
-        <v>864811036990047</v>
-      </c>
-      <c r="F7" s="55"/>
+        <v>866762025212729</v>
+      </c>
+      <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="60"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K7" s="60"/>
-      <c r="L7" s="40"/>
+      <c r="L7" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="M7" s="40" t="s">
         <v>95</v>
       </c>
@@ -3415,281 +3286,517 @@
         <v>62</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="R7" s="38" t="s">
         <v>30</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="72"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="64"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="39">
+        <v>865904027272381</v>
+      </c>
       <c r="F8" s="55"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="72"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="64"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="39">
+        <v>865904027282034</v>
+      </c>
       <c r="F9" s="55"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="50"/>
+      <c r="G9" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="72"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="64"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="39">
+        <v>865904027271003</v>
+      </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="72"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="64"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="39">
+        <v>866762029426481</v>
+      </c>
       <c r="F11" s="55"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="72"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="64"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="39">
+        <v>865904027282786</v>
+      </c>
       <c r="F12" s="55"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="71" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="64"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="50"/>
+      <c r="B13" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="39">
+        <v>865904028283155</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1503311634</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="72"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="64"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="70">
+        <v>867330026947757</v>
+      </c>
       <c r="F14" s="55"/>
-      <c r="G14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>102</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="72"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="64"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="39">
+        <v>865904028279187</v>
+      </c>
       <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="64"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="B16" s="37">
+        <v>44467</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44444</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="39">
+        <v>862118020970114</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1308061405</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="64"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3714,9 +3821,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="64"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="64"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3768,7 +3875,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="68" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -3804,7 +3911,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3836,7 +3943,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -3868,7 +3975,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -3949,7 +4056,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="65" t="s">
+      <c r="U25" s="68" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -3985,7 +4092,7 @@
       </c>
       <c r="V26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="14"/>
     </row>
@@ -4145,7 +4252,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4241,7 +4348,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -4273,7 +4380,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4337,7 +4444,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4455,7 +4562,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4945,7 +5052,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4977,43 +5084,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5058,58 +5165,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5134,23 +5241,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,7 +5267,9 @@
       <c r="B6" s="37">
         <v>44467</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44444</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>70</v>
       </c>
@@ -5198,7 +5307,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5213,7 +5322,9 @@
       <c r="B7" s="37">
         <v>44467</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44444</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>70</v>
       </c>
@@ -5253,7 +5364,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5282,7 +5393,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5311,7 +5422,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5340,7 +5451,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5369,7 +5480,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5398,7 +5509,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5429,7 +5540,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5458,7 +5569,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5487,7 +5598,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5516,7 +5627,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6747,6 +6858,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6758,13 +6876,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6775,8 +6886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6808,43 +6919,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -6889,58 +7000,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -6965,23 +7076,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6991,7 +7102,9 @@
       <c r="B6" s="37">
         <v>44467</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44444</v>
+      </c>
       <c r="D6" s="38" t="s">
         <v>44</v>
       </c>
@@ -7033,7 +7146,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7048,7 +7161,9 @@
       <c r="B7" s="37">
         <v>44467</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44444</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
@@ -7088,7 +7203,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7101,7 +7216,9 @@
       <c r="B8" s="37">
         <v>44467</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44444</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>44</v>
       </c>
@@ -7141,7 +7258,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7154,7 +7271,9 @@
       <c r="B9" s="37">
         <v>44467</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44444</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>44</v>
       </c>
@@ -7196,7 +7315,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7209,7 +7328,9 @@
       <c r="B10" s="37">
         <v>44467</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44444</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
@@ -7251,7 +7372,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7264,7 +7385,9 @@
       <c r="B11" s="37">
         <v>44467</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44444</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>44</v>
       </c>
@@ -7306,7 +7429,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7319,7 +7442,9 @@
       <c r="B12" s="37">
         <v>44467</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44444</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>44</v>
       </c>
@@ -7361,7 +7486,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7376,7 +7501,9 @@
       <c r="B13" s="37">
         <v>44467</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44444</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>44</v>
       </c>
@@ -7418,7 +7545,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7431,7 +7558,9 @@
       <c r="B14" s="37">
         <v>44467</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44444</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>44</v>
       </c>
@@ -7471,7 +7600,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7500,7 +7629,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7529,7 +7658,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8760,6 +8889,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8771,13 +8907,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8821,43 +8950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8902,58 +9031,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -8978,23 +9107,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9020,7 +9149,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9051,7 +9180,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9080,7 +9209,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9109,7 +9238,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9138,7 +9267,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9167,7 +9296,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9196,7 +9325,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9227,7 +9356,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9256,7 +9385,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9285,7 +9414,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9314,7 +9443,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10545,6 +10674,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10556,13 +10692,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
